--- a/src/main/java/com/testdata/TestSuite1.xlsx
+++ b/src/main/java/com/testdata/TestSuite1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4660" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4691" uniqueCount="597">
   <si>
     <t>TCID</t>
   </si>
@@ -1913,6 +1913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2763,10 +2764,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="69.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.58984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,9 +3172,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="54.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="54.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="44.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -4814,14 +4815,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="76.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="53" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="83.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="76.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -22351,10 +22352,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -22405,9 +22406,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="46.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="41.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -22868,8 +22869,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39" thickBot="1" x14ac:dyDescent="0.3">
